--- a/model_logiczny_AM.xlsx
+++ b/model_logiczny_AM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Desktop/uni/semestr4/modelowanie danych/ModelowanieDanych/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDA5FC7-E634-42B4-A860-3ABFBD3D9B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82119D3A-3ED7-4E4C-9582-BEF421D58402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabele" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="102">
   <si>
     <t>Krotność</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Klucz obcy</t>
   </si>
   <si>
-    <t>tabela</t>
-  </si>
-  <si>
     <t>Zamówienie</t>
   </si>
   <si>
@@ -271,10 +268,70 @@
     <t>order_id</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>flavor</t>
+  </si>
+  <si>
+    <t>order_value</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>item_value</t>
+  </si>
+  <si>
+    <t>topping</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>container_value</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>container_name</t>
+  </si>
+  <si>
+    <t>rgb</t>
+  </si>
+  <si>
+    <t>color_name</t>
+  </si>
+  <si>
+    <t>varchar(7)</t>
+  </si>
+  <si>
+    <t>cone_type</t>
+  </si>
+  <si>
+    <t>varcgar(20)</t>
+  </si>
+  <si>
+    <t>cup_lid</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>cup_id</t>
   </si>
 </sst>
 </file>
@@ -298,7 +355,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,8 +368,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -385,25 +448,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,7 +488,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -459,10 +550,70 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>321574</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>181793</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="pole tekstowe 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B525F4E3-936E-2323-06AE-3CC89D6D7FA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514970" y="1715378"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Pakiet Office 2007–2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -500,9 +651,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Pakiet Office 2007–2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -535,26 +686,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -587,26 +721,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Pakiet Office 2007–2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -780,20 +897,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,58 +918,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -873,18 +984,18 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -907,97 +1018,97 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1006,159 +1117,159 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="D11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="6" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>35</v>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1173,718 +1284,887 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="F1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="F1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="10"/>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="K6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="F8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="10"/>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="F12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="10" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="F18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C19" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D19" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="H19" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="J19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="F20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" t="s">
+        <v>69</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="F24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="C25" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="K25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="F10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="F31" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="9"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="F33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="F12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="F13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="F15" s="5" t="s">
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="F34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="F35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="F38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="2"/>
+      <c r="F40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5" t="s">
+      <c r="I40" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="F41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="F18" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="12"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="F19" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="F20" s="5" t="s">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" t="s">
-        <v>70</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F25" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F27" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F31" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="12"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="F32" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K34" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F35" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F38" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="12"/>
-    </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F39" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K39" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F41" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="K41" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="J41" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="F31:K31"/>
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F8:K8"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="F24:K24"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1892,6 +2172,7 @@
     <oddHeader>&amp;A</oddHeader>
     <oddFooter>Przygotował(a) Katarzyna Wójcik &amp;D&amp;RStrona &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1901,14 +2182,14 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1922,43 +2203,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>

--- a/model_logiczny_AM.xlsx
+++ b/model_logiczny_AM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Desktop/uni/semestr4/modelowanie danych/ModelowanieDanych/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AM\ModelowanieDanych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82119D3A-3ED7-4E4C-9582-BEF421D58402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C08FBD1-D001-4AF1-8E7C-97237A94EE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabele" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="124">
   <si>
     <t>Krotność</t>
   </si>
@@ -277,18 +277,9 @@
     <t>item_id</t>
   </si>
   <si>
-    <t>portion</t>
-  </si>
-  <si>
     <t>flavor</t>
   </si>
   <si>
-    <t>order_value</t>
-  </si>
-  <si>
-    <t>order_date</t>
-  </si>
-  <si>
     <t>item_value</t>
   </si>
   <si>
@@ -298,18 +289,9 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>container_value</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
-    <t>container_name</t>
-  </si>
-  <si>
     <t>rgb</t>
   </si>
   <si>
@@ -319,19 +301,103 @@
     <t>varchar(7)</t>
   </si>
   <si>
-    <t>cone_type</t>
-  </si>
-  <si>
     <t>varcgar(20)</t>
   </si>
   <si>
-    <t>cup_lid</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>cup_id</t>
+  </si>
+  <si>
+    <t>Dodatek</t>
+  </si>
+  <si>
+    <t>flavors</t>
+  </si>
+  <si>
+    <t>toppings</t>
+  </si>
+  <si>
+    <t>tabela walidacyjna</t>
+  </si>
+  <si>
+    <t>items_toppings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topping </t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>cones_flavors</t>
+  </si>
+  <si>
+    <t>cones_types</t>
+  </si>
+  <si>
+    <t>ice_cream_flavors</t>
+  </si>
+  <si>
+    <t>items_ice_cream_flavors</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cup </t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>portion_size</t>
+  </si>
+  <si>
+    <t>tabela z danymi</t>
+  </si>
+  <si>
+    <t>order_id+item_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>cup+color</t>
+  </si>
+  <si>
+    <t>name+rgb</t>
+  </si>
+  <si>
+    <t>wygodniej</t>
+  </si>
+  <si>
+    <t>container_id</t>
+  </si>
+  <si>
+    <t>item_id+flavor</t>
+  </si>
+  <si>
+    <t>item_id+topping</t>
+  </si>
+  <si>
+    <t>item _id</t>
+  </si>
+  <si>
+    <t>restrykcyjna</t>
+  </si>
+  <si>
+    <t>kaskadowa</t>
   </si>
 </sst>
 </file>
@@ -375,7 +441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -465,11 +531,50 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -477,8 +582,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -488,14 +597,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,6 +608,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,9 +730,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office 2007–2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -651,9 +770,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office 2007–2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -686,9 +805,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -721,9 +857,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office 2007–2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -897,20 +1050,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -918,25 +1071,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="1"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -944,7 +1103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -952,18 +1111,68 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="1"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -978,24 +1187,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1018,257 +1227,433 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1284,78 +1669,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="159" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:D39"/>
+    <sheetView topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="9"/>
-    </row>
-    <row r="2" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="11"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
       <c r="F3" s="1" t="s">
         <v>49</v>
       </c>
@@ -1373,15 +1758,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="6"/>
       <c r="F4" s="1" t="s">
         <v>53</v>
       </c>
@@ -1399,12 +1784,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1425,7 +1810,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1447,63 +1832,63 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="F10" s="1" t="s">
         <v>17</v>
       </c>
@@ -1521,15 +1906,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="10"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
       <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1547,14 +1932,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="F12" s="1" t="s">
         <v>60</v>
@@ -1573,15 +1958,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="17"/>
       <c r="F13" s="1" t="s">
         <v>62</v>
       </c>
@@ -1599,14 +1984,14 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="1"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="1"/>
       <c r="F14" s="1" t="s">
         <v>63</v>
@@ -1625,7 +2010,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
       <c r="F15" s="1" t="s">
         <v>64</v>
       </c>
@@ -1643,7 +2032,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
       <c r="F16" s="1" t="s">
         <v>67</v>
       </c>
@@ -1652,7 +2045,7 @@
         <v>65</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>59</v>
@@ -1661,63 +2054,63 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="F18" s="7" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="F18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="J19" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="6" t="s">
+      <c r="K19" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
       <c r="F20" s="1" t="s">
         <v>68</v>
       </c>
@@ -1735,13 +2128,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>92</v>
-      </c>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="1" t="s">
@@ -1761,13 +2150,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>81</v>
-      </c>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="1" t="s">
@@ -1787,63 +2172,61 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="F24" s="7" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="F25" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J25" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
       <c r="F26" s="1" t="s">
         <v>17</v>
       </c>
@@ -1861,12 +2244,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1887,7 +2270,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
       <c r="F28" s="1" t="s">
         <v>66</v>
       </c>
@@ -1905,69 +2296,67 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="F31" s="7" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="F32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B33" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
       <c r="F33" s="1" t="s">
         <v>17</v>
       </c>
@@ -1985,15 +2374,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+        <v>86</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="F34" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,7 +2400,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2033,69 +2422,67 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="F38" s="7" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="9"/>
-    </row>
-    <row r="39" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="F39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B40" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="2"/>
       <c r="F40" s="1" t="s">
         <v>78</v>
       </c>
@@ -2113,15 +2500,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
+        <v>81</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
       <c r="F41" s="1" t="s">
         <v>68</v>
       </c>
@@ -2139,32 +2526,429 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+    </row>
+    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" s="6"/>
+      <c r="D89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="19">
+    <mergeCell ref="A87:D87"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A46:D46"/>
     <mergeCell ref="F31:K31"/>
     <mergeCell ref="F38:K38"/>
     <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A18:D18"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:K1"/>
     <mergeCell ref="F8:K8"/>
     <mergeCell ref="F18:K18"/>
     <mergeCell ref="F24:K24"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A38:D38"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2178,18 +2962,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2203,47 +2989,165 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
